--- a/biology/Médecine/Guillaume_Livet/Guillaume_Livet.xlsx
+++ b/biology/Médecine/Guillaume_Livet/Guillaume_Livet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Guillaume Livet (né le 24 janvier 1856 dans l'ancien 9e arrondissement de Paris et mort le 16 avril 1919 à Paris 10e[1]) est un auteur dramatique, journaliste, romancier, scénariste et médecin français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Guillaume Livet (né le 24 janvier 1856 dans l'ancien 9e arrondissement de Paris et mort le 16 avril 1919 à Paris 10e) est un auteur dramatique, journaliste, romancier, scénariste et médecin français.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Interne des hôpitaux et journaliste[2] à L’Événement, Le Temps, Gil Blas, Voltaire (1883-1891) ou, entre autres, au Journal (1892), il devient docteur en médecine (Paris, 1896) et se distingue pour des recherches sur les cancers en appliquant sur les parties cancéreuses des fragments de carbure de calcium et obtient la cessation des douleurs et des hémorragies[3].
-Comme écrivain, on lui doit des pièces de théâtre et des romans d'amour, puis, lors de la Première Guerre mondiale des romans sur les tranchées[4]. Il a également écrit quelques scénarios pour le cinéma
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Interne des hôpitaux et journaliste à L’Événement, Le Temps, Gil Blas, Voltaire (1883-1891) ou, entre autres, au Journal (1892), il devient docteur en médecine (Paris, 1896) et se distingue pour des recherches sur les cancers en appliquant sur les parties cancéreuses des fragments de carbure de calcium et obtient la cessation des douleurs et des hémorragies.
+Comme écrivain, on lui doit des pièces de théâtre et des romans d'amour, puis, lors de la Première Guerre mondiale des romans sur les tranchées. Il a également écrit quelques scénarios pour le cinéma
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Mariage de Racine, comédie en 1 acte, en vers, avec Gustave Vautrey, 1882
 À travers la porte, saynète en 1 acte, en vers, 1884
@@ -606,8 +622,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Comme scénariste
-1911 : La Gouvernante de Georges Denola
+          <t>Comme scénariste</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1911 : La Gouvernante de Georges Denola
 1911 : Rigadin n'aime pas le vendredi 13  de Georges Monca</t>
         </is>
       </c>
